--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CBB58B-A9BC-4776-9C62-230CC6F19C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F401EAC-C45B-4B82-BF46-A256E328E5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="14400" windowWidth="13680" windowHeight="4410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="14415" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -110,9 +110,6 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>region</t>
   </si>
   <si>
-    <t>sector</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -179,27 +173,6 @@
     <t>query_name</t>
   </si>
   <si>
-    <t>equipa</t>
-  </si>
-  <si>
-    <t>mtn_equi</t>
-  </si>
-  <si>
-    <t>orange_equi</t>
-  </si>
-  <si>
-    <t>mtn_RAS</t>
-  </si>
-  <si>
-    <t>orange_RAS</t>
-  </si>
-  <si>
-    <t>Data_ou_idade</t>
-  </si>
-  <si>
-    <t>Idade ou data de nascimento?</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -227,24 +200,12 @@
     <t>begin screen</t>
   </si>
   <si>
-    <t>Idades em anos</t>
-  </si>
-  <si>
-    <t>Idade em meses</t>
-  </si>
-  <si>
     <t>end screen</t>
   </si>
   <si>
     <t>end if</t>
   </si>
   <si>
-    <t>data_inscricao</t>
-  </si>
-  <si>
-    <t>id_paciente</t>
-  </si>
-  <si>
     <t>custom_date</t>
   </si>
   <si>
@@ -263,15 +224,6 @@
     <t>Makes the date widget DD/MM/YYYY</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>nome_casa</t>
-  </si>
-  <si>
-    <t>numero_sticker</t>
-  </si>
-  <si>
     <t>branch_label</t>
   </si>
   <si>
@@ -305,36 +257,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>abrir_ronda</t>
-  </si>
-  <si>
-    <t>letra_sticker</t>
-  </si>
-  <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
-    <t>tabanca</t>
-  </si>
-  <si>
-    <t>chefe_af</t>
-  </si>
-  <si>
-    <t>mae</t>
-  </si>
-  <si>
-    <t>data('mes')&lt;12</t>
-  </si>
-  <si>
-    <t>se nao souber coloca zero, se for 12 acrescenta 1 ano</t>
-  </si>
-  <si>
-    <t>se for menos de 1 ano coloca zero</t>
-  </si>
-  <si>
     <t>Bafatá</t>
   </si>
   <si>
@@ -380,9 +302,6 @@
     <t>data('DOB_ou_idade')=='1'</t>
   </si>
   <si>
-    <t>data('DOB_ou_idade')=='2'</t>
-  </si>
-  <si>
     <t>cabezado</t>
   </si>
   <si>
@@ -392,15 +311,6 @@
     <t>resultado</t>
   </si>
   <si>
-    <t>ano_em_mes</t>
-  </si>
-  <si>
-    <t>(data('ano')*12) + data('mes')</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
     <t>altura</t>
   </si>
   <si>
@@ -417,9 +327,6 @@
   </si>
   <si>
     <t>Formulário de reportagem de evento adverso</t>
-  </si>
-  <si>
-    <t>Nome do paciente</t>
   </si>
   <si>
     <t>data_ocorrencia</t>
@@ -559,6 +466,63 @@
   </si>
   <si>
     <t>erro_evento</t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>nota_dn</t>
+  </si>
+  <si>
+    <t>Data de Nascimento: {{data.dn}}</t>
+  </si>
+  <si>
+    <t>nota_ano</t>
+  </si>
+  <si>
+    <t>Tem {{data.ano}} anos e {{data.mes}} meses</t>
+  </si>
+  <si>
+    <t>nota_nome</t>
+  </si>
+  <si>
+    <t>O nome da criança é {{data.nome}}</t>
+  </si>
+  <si>
+    <t>visita_id</t>
+  </si>
+  <si>
+    <t>adate.ageInDays(data('date_rastreio'))</t>
+  </si>
+  <si>
+    <t>idade_mes</t>
+  </si>
+  <si>
+    <t>(data('DOB_ou_idade')=='1')?adate.ageInMonths(data('dn')):(12*data('ano')+data('mes'))</t>
+  </si>
+  <si>
+    <t>date_rastreio</t>
+  </si>
+  <si>
+    <t>id_rastreio</t>
+  </si>
+  <si>
+    <t>data('sexo')=='1'</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>feminino</t>
+  </si>
+  <si>
+    <t>Sexo: Feminino</t>
+  </si>
+  <si>
+    <t>Sexo: Masculino</t>
   </si>
 </sst>
 </file>
@@ -639,15 +603,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -668,6 +644,21 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -722,17 +713,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -740,7 +722,14 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1166,7 +1155,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1217,7 +1206,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1233,13 +1222,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1253,17 +1242,19 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="5"/>
-    <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="60" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="5"/>
+    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1283,56 +1274,62 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>32</v>
+      <c r="H1" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -1342,462 +1339,454 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="L6" s="2" t="b">
+      <c r="N6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>5</v>
+      <c r="F13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="7" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D36" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D44" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
@@ -1842,8 +1831,13 @@
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
     </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -1882,51 +1876,51 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,24 +1929,24 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,24 +1959,24 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,86 +1984,86 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2078,46 +2072,46 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,35 +2124,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,69 +2602,69 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="20" t="s">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>42</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>146</v>
+        <v>134</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2694,46 +2688,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>71</v>
+      <c r="C1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2746,7 +2740,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2757,31 +2751,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,10 +2785,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A40" sqref="A40:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2804,280 +2798,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
+      <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>48</v>
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
+      <c r="A39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F401EAC-C45B-4B82-BF46-A256E328E5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3A45D-8C1F-4D79-A820-E4E1EF115AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="14415" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="163">
   <si>
     <t>type</t>
   </si>
@@ -438,12 +438,6 @@
   </si>
   <si>
     <t>Telefone:</t>
-  </si>
-  <si>
-    <t>id_estudo=?</t>
-  </si>
-  <si>
-    <t>[ opendatakit.getCurrentInstanceId() ]</t>
   </si>
   <si>
     <t>Estás a fazer reportagem  de evento adverso de um caso no Centro de Saúde de {{data.cs}}
@@ -523,6 +517,18 @@
   </si>
   <si>
     <t>Sexo: Masculino</t>
+  </si>
+  <si>
+    <t>visitaformID</t>
+  </si>
+  <si>
+    <t>_id=?</t>
+  </si>
+  <si>
+    <t>[data('_id')]</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo'), evento_adversoformID: data('_id')}</t>
   </si>
 </sst>
 </file>
@@ -1224,11 +1230,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="J1:K1048576"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1281,10 +1287,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1361,7 +1367,7 @@
         <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1371,10 +1377,10 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1390,10 +1396,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
@@ -1403,10 +1409,10 @@
         <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1429,10 +1435,10 @@
         <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1450,10 +1456,10 @@
         <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1468,10 +1474,10 @@
         <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -1486,7 +1492,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1498,10 +1504,10 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -1517,10 +1523,10 @@
         <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -2585,7 +2591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2651,13 +2657,13 @@
         <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>115</v>
@@ -2759,18 +2765,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,10 +2791,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2810,7 +2816,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,7 +2824,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,186 +2893,122 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>141</v>
+      <c r="A19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>148</v>
+      <c r="A20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>144</v>
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>146</v>
+      <c r="A22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>158</v>
+      <c r="A24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3A45D-8C1F-4D79-A820-E4E1EF115AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD64ED3-FFA8-418F-BC9C-965806F1A9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
   <si>
     <t>type</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>Telefone:</t>
+  </si>
+  <si>
+    <t>id_estudo=?</t>
   </si>
   <si>
     <t>Estás a fazer reportagem  de evento adverso de um caso no Centro de Saúde de {{data.cs}}
@@ -450,18 +453,6 @@
     <t>Código de estudo:</t>
   </si>
   <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>O código de estudo introduzido não corresponte com o codigo do estudo</t>
-  </si>
-  <si>
-    <t>data('evento_id') != data('id_estudo')</t>
-  </si>
-  <si>
-    <t>erro_evento</t>
-  </si>
-  <si>
     <t>display.adate.fromYear</t>
   </si>
   <si>
@@ -501,9 +492,6 @@
     <t>date_rastreio</t>
   </si>
   <si>
-    <t>id_rastreio</t>
-  </si>
-  <si>
     <t>data('sexo')=='1'</t>
   </si>
   <si>
@@ -522,13 +510,13 @@
     <t>visitaformID</t>
   </si>
   <si>
-    <t>_id=?</t>
-  </si>
-  <si>
-    <t>[data('_id')]</t>
-  </si>
-  <si>
-    <t>{id_estudo: data('id_estudo'), evento_adversoformID: data('_id')}</t>
+    <t>{id_estudo: data('id_estudo'), evento_adversoformID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>id_estudo</t>
+  </si>
+  <si>
+    <t>[ data('id_estudo') ]</t>
   </si>
 </sst>
 </file>
@@ -1228,13 +1216,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1287,10 +1275,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1367,7 +1355,7 @@
         <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1377,13 +1365,13 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -1396,225 +1384,227 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>144</v>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="C20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2020</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D30" s="8" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K30" s="2">
-        <v>2020</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -1622,99 +1612,102 @@
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D33" s="8" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D36" s="8" t="s">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>114</v>
+      <c r="F37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>53</v>
+      <c r="D38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>52</v>
+      <c r="D39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1722,77 +1715,59 @@
         <v>59</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D43" s="8" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D44" s="8" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2020</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J47" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K47" s="2">
-        <v>2020</v>
-      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
@@ -1826,21 +1801,6 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2589,9 +2549,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2657,13 +2617,13 @@
         <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>115</v>
@@ -2765,18 +2725,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,10 +2751,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2816,15 +2776,15 @@
         <v>63</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>153</v>
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,39 +2792,39 @@
         <v>10</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>80</v>
+      <c r="A7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,31 +2832,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B12" s="21" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,47 +2864,47 @@
         <v>88</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>92</v>
+        <v>63</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +2912,7 @@
         <v>59</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,55 +2920,55 @@
         <v>59</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>159</v>
+      <c r="B31" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD64ED3-FFA8-418F-BC9C-965806F1A9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E898350-5354-4B42-BF64-97AF18F6C1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="13200" yWindow="7260" windowWidth="11565" windowHeight="8355" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -450,9 +450,6 @@
     <t>evento_id</t>
   </si>
   <si>
-    <t>Código de estudo:</t>
-  </si>
-  <si>
     <t>display.adate.fromYear</t>
   </si>
   <si>
@@ -517,6 +514,12 @@
   </si>
   <si>
     <t>[ data('id_estudo') ]</t>
+  </si>
+  <si>
+    <t>outrodiaformID</t>
+  </si>
+  <si>
+    <t>Código de estudo:{{id_estudo}}</t>
   </si>
 </sst>
 </file>
@@ -1149,18 +1152,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1222,10 +1225,10 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1246,7 +1249,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -1275,10 +1278,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1323,7 +1326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -1337,7 +1340,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1345,7 +1348,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>62</v>
@@ -1358,7 +1361,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
         <v>59</v>
@@ -1368,10 +1371,10 @@
         <v>135</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1390,18 +1393,18 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
@@ -1411,66 +1414,66 @@
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1478,42 +1481,42 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
         <v>88</v>
@@ -1526,7 +1529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
         <v>88</v>
@@ -1539,7 +1542,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1547,12 +1550,12 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1560,7 +1563,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D27" s="8" t="s">
         <v>63</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1591,12 +1594,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D30" s="8" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D31" s="8" t="s">
         <v>10</v>
       </c>
@@ -1621,12 +1624,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D33" s="8" t="s">
         <v>62</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D34" s="8" t="s">
         <v>113</v>
       </c>
@@ -1645,17 +1648,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D37" s="8" t="s">
         <v>62</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D38" s="8" t="s">
         <v>59</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D39" s="8" t="s">
         <v>59</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D40" s="8" t="s">
         <v>59</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D41" s="8" t="s">
         <v>5</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D42" s="8" t="s">
         <v>59</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D43" s="8" t="s">
         <v>123</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D44" s="8" t="s">
         <v>63</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
@@ -1757,47 +1760,47 @@
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
@@ -1823,7 +1826,7 @@
       <selection activeCell="A28" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1831,7 +1834,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
@@ -1889,11 +1892,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1915,15 +1918,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1945,10 +1948,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -2032,11 +2035,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2080,15 +2083,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -2121,415 +2124,415 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
@@ -2549,12 +2552,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -2568,7 +2571,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2620,16 +2623,16 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H3" s="16"/>
     </row>
   </sheetData>
@@ -2647,14 +2650,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2709,13 +2712,13 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2723,23 +2726,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
         <v>145</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2"/>
       <c r="B4" s="15"/>
     </row>
@@ -2751,19 +2754,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2771,15 +2774,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>88</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>88</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>123</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -2955,20 +2958,28 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E898350-5354-4B42-BF64-97AF18F6C1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586AA758-29C7-4EAD-ABD4-C88B3D73AF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13200" yWindow="7260" windowWidth="11565" windowHeight="8355" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="6615" windowWidth="19500" windowHeight="10185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
   <si>
     <t>type</t>
   </si>
@@ -194,9 +194,6 @@
     <t>if</t>
   </si>
   <si>
-    <t>else</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>DOB_ou_idade</t>
   </si>
   <si>
-    <t>data('DOB_ou_idade')=='1'</t>
-  </si>
-  <si>
     <t>cabezado</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>altura</t>
   </si>
   <si>
-    <t>Altura (cm)</t>
-  </si>
-  <si>
     <t>peso</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
     <t>Formulário de reportagem de evento adverso</t>
   </si>
   <si>
-    <t>data_ocorrencia</t>
-  </si>
-  <si>
     <t>Data da ocorrência</t>
   </si>
   <si>
@@ -417,9 +405,6 @@
   </si>
   <si>
     <t>date_assinatuda</t>
-  </si>
-  <si>
-    <t>Data:</t>
   </si>
   <si>
     <t>Assinatura:</t>
@@ -456,18 +441,6 @@
     <t>display.adate.toYear</t>
   </si>
   <si>
-    <t>nota_dn</t>
-  </si>
-  <si>
-    <t>Data de Nascimento: {{data.dn}}</t>
-  </si>
-  <si>
-    <t>nota_ano</t>
-  </si>
-  <si>
-    <t>Tem {{data.ano}} anos e {{data.mes}} meses</t>
-  </si>
-  <si>
     <t>nota_nome</t>
   </si>
   <si>
@@ -489,21 +462,6 @@
     <t>date_rastreio</t>
   </si>
   <si>
-    <t>data('sexo')=='1'</t>
-  </si>
-  <si>
-    <t>masculino</t>
-  </si>
-  <si>
-    <t>feminino</t>
-  </si>
-  <si>
-    <t>Sexo: Feminino</t>
-  </si>
-  <si>
-    <t>Sexo: Masculino</t>
-  </si>
-  <si>
     <t>visitaformID</t>
   </si>
   <si>
@@ -520,6 +478,93 @@
   </si>
   <si>
     <t>Código de estudo:{{id_estudo}}</t>
+  </si>
+  <si>
+    <t>dn_display</t>
+  </si>
+  <si>
+    <t>adate.display(data('dn'))</t>
+  </si>
+  <si>
+    <t>dn_idade_display_longo</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
+  </si>
+  <si>
+    <t>sexo_display</t>
+  </si>
+  <si>
+    <t>data('sexo') == '1' ? 'M' : 'F'</t>
+  </si>
+  <si>
+    <t>{{calculates.dn_idade_display_longo}}</t>
+  </si>
+  <si>
+    <t>nota_dn_ano</t>
+  </si>
+  <si>
+    <t>nota_sexo</t>
+  </si>
+  <si>
+    <t>Sexo: {{calculates.sexo_display}}</t>
+  </si>
+  <si>
+    <t>MUAC</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data_fomulario</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>data_form</t>
+  </si>
+  <si>
+    <t>date_form_display</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.date_form())</t>
+  </si>
+  <si>
+    <t>naofuturo</t>
+  </si>
+  <si>
+    <t>date_ocorrencia</t>
+  </si>
+  <si>
+    <t>error_data</t>
+  </si>
+  <si>
+    <t>corrija a data por favor</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_ocorrencia'),calculates.data_form())</t>
+  </si>
+  <si>
+    <t>!adate.hasUncertainty(data('date_ocorrencia'))</t>
+  </si>
+  <si>
+    <t>A data não deve ser no futuro porque hoje é {{calculates.data_form}} que é menor do que a data de ocorrência {{data.date_ocorrencia}}</t>
+  </si>
+  <si>
+    <t>calculates.erro()&lt;0</t>
+  </si>
+  <si>
+    <t>erro</t>
+  </si>
+  <si>
+    <t>!calculates.naofuturo()</t>
+  </si>
+  <si>
+    <t>Data:{{calculates.data_form}}</t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
 </sst>
 </file>
@@ -678,7 +723,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -714,9 +759,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,20 +1192,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1174,15 +1216,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1190,20 +1232,28 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1219,22 +1269,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="F40" activeCellId="1" sqref="D40 F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.25" style="7" customWidth="1"/>
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
@@ -1249,9 +1299,9 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1278,10 +1328,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1326,7 +1376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -1340,470 +1390,427 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="N6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>149</v>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="F14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D17" s="2" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B19" s="2" t="s">
+      <c r="F18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B26" s="2" t="s">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B32" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D34" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B35" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B36" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D42" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D43" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J44" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K44" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B45" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P40" t="s">
+        <v>159</v>
+      </c>
+      <c r="W40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1826,7 +1833,7 @@
       <selection activeCell="A28" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1834,7 +1841,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1848,7 +1855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1859,7 +1866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1870,9 +1877,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1881,9 +1888,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1892,11 +1899,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1907,7 +1914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1918,621 +1925,621 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
@@ -2557,7 +2564,7 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -2571,69 +2578,69 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H3" s="16"/>
+        <v>143</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2650,53 +2657,53 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2706,19 +2713,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2726,25 +2733,77 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>144</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>146</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2754,19 +2813,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2774,211 +2833,219 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="19" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="18" t="s">
+      <c r="B6" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="B8" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>158</v>
       </c>
     </row>

--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\evento_adverso\forms\evento_adverso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586AA758-29C7-4EAD-ABD4-C88B3D73AF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5171BC5-D571-4F29-B572-DCE69619E522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="6615" windowWidth="19500" windowHeight="10185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="211">
   <si>
     <t>type</t>
   </si>
@@ -565,6 +565,114 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>(data('MUAC')&gt;=120 &amp;&amp; data('MUAC')&lt;=180) || data('MUAC')==888</t>
+  </si>
+  <si>
+    <t>MUAC deve ser em milimetros (mm) por favor verifica se nao está em centimetros (cm) ou outra unidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(data('peso')&lt;=35 &amp;&amp; data('peso')&gt;=5) || data('peso')==888 </t>
+  </si>
+  <si>
+    <t>Peso deve ser em Quilogramos (Kg) por favor verifica se nao está em gramos (g) ou em outra unidade</t>
+  </si>
+  <si>
+    <t>se não for medido coloca 888</t>
+  </si>
+  <si>
+    <t>Nome da Marca</t>
+  </si>
+  <si>
+    <t>Número de lote</t>
+  </si>
+  <si>
+    <t>Nome do fabricador</t>
+  </si>
+  <si>
+    <t>via_adm</t>
+  </si>
+  <si>
+    <t>Via de administração</t>
+  </si>
+  <si>
+    <t>VO (Oral)</t>
+  </si>
+  <si>
+    <t>IM (Intra-muscular)</t>
+  </si>
+  <si>
+    <t>EV (Intra-venosa)</t>
+  </si>
+  <si>
+    <t>marca1</t>
+  </si>
+  <si>
+    <t>lote1</t>
+  </si>
+  <si>
+    <t>fabricador1</t>
+  </si>
+  <si>
+    <t>via1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anote o medicamento suspeito de causar o evento adverso sério e todos os concomitantes </t>
+  </si>
+  <si>
+    <t>Alem de {{data.marca1}}</t>
+  </si>
+  <si>
+    <t>listas2</t>
+  </si>
+  <si>
+    <t>marca2</t>
+  </si>
+  <si>
+    <t>lote2</t>
+  </si>
+  <si>
+    <t>fabricador2</t>
+  </si>
+  <si>
+    <t>via2</t>
+  </si>
+  <si>
+    <t>listas3</t>
+  </si>
+  <si>
+    <t>marca3</t>
+  </si>
+  <si>
+    <t>lote3</t>
+  </si>
+  <si>
+    <t>fabricador3</t>
+  </si>
+  <si>
+    <t>via3</t>
+  </si>
+  <si>
+    <t>listas4</t>
+  </si>
+  <si>
+    <t>marca4</t>
+  </si>
+  <si>
+    <t>lote4</t>
+  </si>
+  <si>
+    <t>fabricador4</t>
+  </si>
+  <si>
+    <t>via4</t>
+  </si>
+  <si>
+    <t>Alem de {{data.marca1}} e {{data.marca2}}</t>
+  </si>
+  <si>
+    <t>Alem de {{data.marca1}} , {{data.marca2}} e {{data.marca3}}</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1302,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1269,13 +1377,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F40" activeCellId="1" sqref="D40 F40"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1400,7 @@
     <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="5"/>
+    <col min="13" max="13" width="44.625" style="5" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" customWidth="1"/>
     <col min="16" max="16" width="60" style="2" customWidth="1"/>
@@ -1487,7 +1595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>86</v>
@@ -1499,8 +1607,17 @@
       <c r="G13" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
         <v>86</v>
@@ -1511,6 +1628,15 @@
       </c>
       <c r="G14" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1526,7 +1652,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1534,7 +1660,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D18" s="8" t="s">
         <v>62</v>
       </c>
@@ -1554,7 +1680,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1567,13 +1693,16 @@
       <c r="G19" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1581,7 +1710,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D22" s="8" t="s">
         <v>61</v>
       </c>
@@ -1598,12 +1727,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D24" s="8" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1743,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1628,12 +1757,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D27" s="8" t="s">
         <v>61</v>
       </c>
@@ -1644,173 +1773,471 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="8" t="s">
+    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="8" t="s">
+      <c r="F34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D33" s="8" t="s">
+      <c r="F35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D34" s="8" t="s">
+      <c r="F36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D36" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D40" s="2" t="s">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N58" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D59" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N59" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D60" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P64" t="s">
         <v>159</v>
       </c>
-      <c r="W40" s="2" t="b">
+      <c r="W64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1830,7 +2257,7 @@
   <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A30"/>
+      <selection activeCell="A33" sqref="A33:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2135,14 +2562,37 @@
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>

--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\evento_adverso\forms\evento_adverso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5171BC5-D571-4F29-B572-DCE69619E522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C223FBAF-ABAC-43F0-8FC3-A083E5109028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="222">
   <si>
     <t>type</t>
   </si>
@@ -673,6 +673,39 @@
   </si>
   <si>
     <t>Alem de {{data.marca1}} , {{data.marca2}} e {{data.marca3}}</t>
+  </si>
+  <si>
+    <t>Tem outro medicamento suspeito para além de {{marca1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>outro_medicamento2</t>
+  </si>
+  <si>
+    <t>relatorio</t>
+  </si>
+  <si>
+    <t>data('outro_medicamento2')=='2'</t>
+  </si>
+  <si>
+    <t>goto relatorio</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>data('outro_medicamento4')=='2'</t>
+  </si>
+  <si>
+    <t>outro_medicamento4</t>
+  </si>
+  <si>
+    <t>data('outro_medicamento3')=='2'</t>
+  </si>
+  <si>
+    <t>outro_medicamento3</t>
   </si>
 </sst>
 </file>
@@ -753,7 +786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +802,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +870,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -877,6 +916,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,14 +1354,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1324,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1340,7 +1388,7 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +1396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1356,7 +1404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -1377,16 +1425,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1407,7 +1455,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -1484,7 +1532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -1498,7 +1546,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1506,7 +1554,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>61</v>
@@ -1519,7 +1567,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
         <v>58</v>
@@ -1532,7 +1580,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1540,7 +1588,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1548,7 +1596,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D8" s="2" t="s">
         <v>61</v>
       </c>
@@ -1559,7 +1607,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1570,7 +1618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
         <v>61</v>
@@ -1583,19 +1631,19 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>86</v>
@@ -1617,7 +1665,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
         <v>86</v>
@@ -1639,7 +1687,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1647,12 +1695,12 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1660,7 +1708,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D18" s="8" t="s">
         <v>62</v>
       </c>
@@ -1680,7 +1728,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1697,12 +1745,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1710,7 +1758,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D22" s="8" t="s">
         <v>61</v>
       </c>
@@ -1727,12 +1775,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D24" s="8" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1757,487 +1805,638 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="8" t="s">
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="2:14" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="2" t="s">
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="21" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="2" t="s">
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
+      <c r="H30" s="23"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="H31" s="23"/>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D34" s="8" t="s">
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D38" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F38" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G38" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I38" s="21" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="2" t="s">
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D39" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F39" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G39" s="21" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F40" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G40" s="21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
+      <c r="M40" s="22"/>
+    </row>
+    <row r="41" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G41" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
+      <c r="H41" s="23"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E42" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F42" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G42" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="H42" s="23"/>
+      <c r="M42" s="22"/>
+    </row>
+    <row r="43" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="M43" s="22"/>
+    </row>
+    <row r="44" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M44" s="22"/>
+    </row>
+    <row r="45" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M45" s="22"/>
+    </row>
+    <row r="46" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M46" s="22"/>
+    </row>
+    <row r="47" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M47" s="22"/>
+    </row>
+    <row r="48" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M48" s="22"/>
+    </row>
+    <row r="49" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D41" s="8" t="s">
+      <c r="M50" s="22"/>
+    </row>
+    <row r="51" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D51" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F51" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G51" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I51" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="2" t="s">
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D52" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F52" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G52" s="21" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="2" t="s">
+      <c r="M52" s="22"/>
+    </row>
+    <row r="53" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D53" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F53" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G53" s="21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
+      <c r="E54" s="23"/>
+      <c r="F54" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G54" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
+      <c r="H54" s="23"/>
+      <c r="M54" s="22"/>
+    </row>
+    <row r="55" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E55" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F55" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G55" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="H55" s="23"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="M56" s="22"/>
+    </row>
+    <row r="57" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="M58" s="22"/>
+    </row>
+    <row r="59" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M60" s="22"/>
+    </row>
+    <row r="61" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D48" s="8" t="s">
+      <c r="M61" s="22"/>
+    </row>
+    <row r="62" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D62" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F62" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G62" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I62" s="21" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D49" s="2" t="s">
+      <c r="M62" s="22"/>
+    </row>
+    <row r="63" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D63" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F63" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G63" s="21" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D50" s="2" t="s">
+      <c r="M63" s="22"/>
+    </row>
+    <row r="64" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D64" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F64" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G64" s="21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
+      <c r="M64" s="22"/>
+    </row>
+    <row r="65" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
+      <c r="E65" s="23"/>
+      <c r="F65" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G65" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
+      <c r="H65" s="23"/>
+      <c r="M65" s="22"/>
+    </row>
+    <row r="66" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E66" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F66" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G66" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="H66" s="23"/>
+      <c r="M66" s="22"/>
+    </row>
+    <row r="67" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B67" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D55" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D56" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D57" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N57" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D58" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N58" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D59" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N59" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D60" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N60" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D61" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N61" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D62" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D64" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P64" t="s">
-        <v>159</v>
-      </c>
-      <c r="W64" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M67" s="22"/>
+    </row>
+    <row r="68" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M68" s="22"/>
+    </row>
+    <row r="69" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M69" s="22"/>
+    </row>
+    <row r="70" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M70" s="22"/>
+    </row>
+    <row r="71" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M71" s="22"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A74" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D75" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D76" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D77" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N77" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D78" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N78" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N79" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D80" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N80" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D81" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N81" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D82" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D84" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P84" t="s">
+        <v>159</v>
+      </c>
+      <c r="W84" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2256,11 +2455,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2268,7 +2467,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2282,7 +2481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2293,7 +2492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2304,7 +2503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -2315,7 +2514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -2326,11 +2525,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2341,7 +2540,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2352,15 +2551,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2371,7 +2570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2382,10 +2581,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -2399,7 +2598,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -2413,7 +2612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -2427,7 +2626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2441,7 +2640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2455,7 +2654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2469,11 +2668,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -2484,7 +2683,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -2495,7 +2694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2506,7 +2705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>94</v>
       </c>
@@ -2517,15 +2716,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -2536,7 +2735,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2547,7 +2746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2558,10 +2757,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>183</v>
       </c>
@@ -2572,7 +2771,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>183</v>
       </c>
@@ -2583,7 +2782,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>183</v>
       </c>
@@ -2594,402 +2793,402 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
@@ -3014,7 +3213,7 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3028,7 +3227,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>43</v>
       </c>
@@ -3063,7 +3262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -3089,7 +3288,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H3" s="15"/>
     </row>
   </sheetData>
@@ -3107,14 +3306,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
@@ -3128,7 +3327,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3142,7 +3341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3169,13 +3368,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3183,7 +3382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -3191,7 +3390,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -3199,7 +3398,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3207,7 +3406,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>137</v>
       </c>
@@ -3215,7 +3414,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -3223,7 +3422,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -3231,7 +3430,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>150</v>
       </c>
@@ -3239,7 +3438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>171</v>
       </c>
@@ -3247,7 +3446,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>163</v>
       </c>
@@ -3269,13 +3468,13 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>62</v>
       </c>
@@ -3291,7 +3490,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
@@ -3299,7 +3498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -3307,7 +3506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -3315,7 +3514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
@@ -3323,7 +3522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="17" t="s">
         <v>62</v>
       </c>
@@ -3331,7 +3530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -3347,7 +3546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
@@ -3355,7 +3554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
@@ -3363,7 +3562,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
@@ -3371,7 +3570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>86</v>
       </c>
@@ -3379,7 +3578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>62</v>
       </c>
@@ -3387,7 +3586,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -3395,7 +3594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
@@ -3403,7 +3602,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
@@ -3411,7 +3610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
@@ -3419,7 +3618,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -3427,7 +3626,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>58</v>
       </c>
@@ -3435,7 +3634,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
@@ -3451,7 +3650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>119</v>
       </c>
@@ -3459,7 +3658,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
@@ -3467,7 +3666,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
@@ -3475,7 +3674,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>58</v>
       </c>
@@ -3483,7 +3682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
@@ -3491,7 +3690,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>

--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\evento_adverso\forms\evento_adverso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C223FBAF-ABAC-43F0-8FC3-A083E5109028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB3AAA-2AED-4E2B-AF3A-16C4418288D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="222">
   <si>
     <t>type</t>
   </si>
@@ -1354,14 +1354,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -1425,16 +1425,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1455,7 +1455,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -1546,7 +1546,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>61</v>
@@ -1567,7 +1567,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
         <v>58</v>
@@ -1580,7 +1580,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>61</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
         <v>61</v>
@@ -1631,19 +1631,19 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>86</v>
@@ -1665,7 +1665,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
         <v>86</v>
@@ -1687,7 +1687,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1695,12 +1695,12 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D18" s="8" t="s">
         <v>62</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1745,12 +1745,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D22" s="8" t="s">
         <v>61</v>
       </c>
@@ -1775,12 +1775,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D24" s="8" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1805,13 +1805,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>51</v>
       </c>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="2:14" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:14" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D27" s="21" t="s">
         <v>61</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="21" t="s">
         <v>58</v>
       </c>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="21" t="s">
         <v>58</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="M29" s="22"/>
     </row>
-    <row r="30" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23" t="s">
@@ -1863,7 +1863,7 @@
       <c r="H30" s="23"/>
       <c r="M30" s="22"/>
     </row>
-    <row r="31" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23" t="s">
@@ -1881,13 +1881,13 @@
       <c r="H31" s="23"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
         <v>52</v>
       </c>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D33" s="21" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
         <v>212</v>
       </c>
@@ -1911,25 +1911,25 @@
       </c>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
         <v>216</v>
       </c>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
         <v>217</v>
       </c>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>51</v>
       </c>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D38" s="21" t="s">
         <v>61</v>
       </c>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="21" t="s">
         <v>58</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="M39" s="22"/>
     </row>
-    <row r="40" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="21" t="s">
         <v>58</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="M40" s="22"/>
     </row>
-    <row r="41" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23" t="s">
@@ -1984,7 +1984,7 @@
       <c r="H41" s="23"/>
       <c r="M41" s="22"/>
     </row>
-    <row r="42" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23" t="s">
@@ -2002,16 +2002,16 @@
       <c r="H42" s="23"/>
       <c r="M42" s="22"/>
     </row>
-    <row r="43" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
         <v>52</v>
       </c>
       <c r="M43" s="22"/>
     </row>
-    <row r="44" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M44" s="22"/>
     </row>
-    <row r="45" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D45" s="21" t="s">
         <v>10</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="M45" s="22"/>
     </row>
-    <row r="46" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
         <v>212</v>
       </c>
@@ -2035,28 +2035,28 @@
       </c>
       <c r="M46" s="22"/>
     </row>
-    <row r="47" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
         <v>216</v>
       </c>
       <c r="M47" s="22"/>
     </row>
-    <row r="48" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
         <v>217</v>
       </c>
       <c r="M48" s="22"/>
     </row>
-    <row r="49" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M49" s="22"/>
     </row>
-    <row r="50" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
         <v>51</v>
       </c>
       <c r="M50" s="22"/>
     </row>
-    <row r="51" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D51" s="21" t="s">
         <v>61</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="M51" s="22"/>
     </row>
-    <row r="52" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="21" t="s">
         <v>58</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="M52" s="22"/>
     </row>
-    <row r="53" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="21" t="s">
         <v>58</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M53" s="22"/>
     </row>
-    <row r="54" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23" t="s">
@@ -2111,7 +2111,7 @@
       <c r="H54" s="23"/>
       <c r="M54" s="22"/>
     </row>
-    <row r="55" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23" t="s">
@@ -2129,13 +2129,13 @@
       <c r="H55" s="23"/>
       <c r="M55" s="22"/>
     </row>
-    <row r="56" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>52</v>
       </c>
       <c r="M56" s="22"/>
     </row>
-    <row r="57" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D57" s="21" t="s">
         <v>10</v>
       </c>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="M57" s="22"/>
     </row>
-    <row r="58" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="21" t="s">
         <v>212</v>
       </c>
@@ -2159,25 +2159,25 @@
       </c>
       <c r="M58" s="22"/>
     </row>
-    <row r="59" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
         <v>216</v>
       </c>
       <c r="M59" s="22"/>
     </row>
-    <row r="60" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="21" t="s">
         <v>217</v>
       </c>
       <c r="M60" s="22"/>
     </row>
-    <row r="61" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
         <v>51</v>
       </c>
       <c r="M61" s="22"/>
     </row>
-    <row r="62" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D62" s="21" t="s">
         <v>61</v>
       </c>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="M62" s="22"/>
     </row>
-    <row r="63" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D63" s="21" t="s">
         <v>58</v>
       </c>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="M63" s="22"/>
     </row>
-    <row r="64" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="21" t="s">
         <v>58</v>
       </c>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="M64" s="22"/>
     </row>
-    <row r="65" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23" t="s">
@@ -2232,7 +2232,7 @@
       <c r="H65" s="23"/>
       <c r="M65" s="22"/>
     </row>
-    <row r="66" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23" t="s">
@@ -2250,44 +2250,44 @@
       <c r="H66" s="23"/>
       <c r="M66" s="22"/>
     </row>
-    <row r="67" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>52</v>
       </c>
       <c r="M67" s="22"/>
     </row>
-    <row r="68" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
         <v>53</v>
       </c>
       <c r="M68" s="22"/>
     </row>
-    <row r="69" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>53</v>
       </c>
       <c r="M69" s="22"/>
     </row>
-    <row r="70" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>53</v>
       </c>
       <c r="M70" s="22"/>
     </row>
-    <row r="71" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M71" s="22"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>214</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D75" s="8" t="s">
         <v>61</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D76" s="8" t="s">
         <v>58</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D77" s="8" t="s">
         <v>58</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D78" s="8" t="s">
         <v>58</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D79" s="8" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D80" s="8" t="s">
         <v>58</v>
       </c>
@@ -2376,67 +2376,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D81" s="8" t="s">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D83" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N81" s="2" t="b">
+      <c r="N83" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D82" s="8" t="s">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D84" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B83" s="2" t="s">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P85" t="s">
+        <v>159</v>
+      </c>
+      <c r="W85" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D84" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P84" t="s">
-        <v>159</v>
-      </c>
-      <c r="W84" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2459,7 +2470,7 @@
       <selection activeCell="A33" sqref="A33:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2467,7 +2478,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2492,7 +2503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2503,7 +2514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -2514,7 +2525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -2525,11 +2536,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2540,7 +2551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2551,15 +2562,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2570,7 +2581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2581,10 +2592,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -2612,7 +2623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -2626,7 +2637,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2640,7 +2651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2654,7 +2665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2668,11 +2679,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -2683,7 +2694,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -2694,7 +2705,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2705,7 +2716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>94</v>
       </c>
@@ -2716,15 +2727,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -2735,7 +2746,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2746,7 +2757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2757,10 +2768,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>183</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>183</v>
       </c>
@@ -2782,7 +2793,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>183</v>
       </c>
@@ -2793,402 +2804,402 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
@@ -3213,7 +3224,7 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3227,7 +3238,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>43</v>
       </c>
@@ -3262,7 +3273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -3288,7 +3299,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H3" s="15"/>
     </row>
   </sheetData>
@@ -3306,14 +3317,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
@@ -3327,7 +3338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3341,7 +3352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3368,13 +3379,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3382,7 +3393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -3398,7 +3409,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3406,7 +3417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>137</v>
       </c>
@@ -3414,7 +3425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -3422,7 +3433,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -3430,7 +3441,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>150</v>
       </c>
@@ -3438,7 +3449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>171</v>
       </c>
@@ -3446,7 +3457,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>163</v>
       </c>
@@ -3468,13 +3479,13 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>62</v>
       </c>
@@ -3490,7 +3501,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
@@ -3498,7 +3509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -3506,7 +3517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -3514,7 +3525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
@@ -3522,7 +3533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>62</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
@@ -3538,7 +3549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -3546,7 +3557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
@@ -3554,7 +3565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
@@ -3562,7 +3573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
@@ -3570,7 +3581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>86</v>
       </c>
@@ -3578,7 +3589,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>62</v>
       </c>
@@ -3586,7 +3597,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -3594,7 +3605,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
@@ -3602,7 +3613,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
@@ -3610,7 +3621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
@@ -3618,7 +3629,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -3626,7 +3637,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>58</v>
       </c>
@@ -3634,7 +3645,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
@@ -3642,7 +3653,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
@@ -3650,7 +3661,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>119</v>
       </c>
@@ -3658,7 +3669,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
@@ -3666,7 +3677,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
@@ -3674,7 +3685,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>58</v>
       </c>
@@ -3682,7 +3693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>

--- a/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
+++ b/app/config/tables/evento_adverso/forms/evento_adverso/evento_adverso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\evento_adverso\forms\evento_adverso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB3AAA-2AED-4E2B-AF3A-16C4418288D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F528D-576A-4E8D-BAFE-F3FDD604C5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
